--- a/UserDetails.xlsx
+++ b/UserDetails.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AdvanceSeleniumTestNGPracticals\New Advance Selenium Workspace\DataScrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F10621-6091-47D9-A6EE-84F6FFDBF243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFFE184-9847-4E23-AA68-7F3723D61E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3540" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="1" r:id="rId1"/>
@@ -20,33 +20,535 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="174">
   <si>
     <t>Company Name</t>
   </si>
   <si>
-    <t>Member ID</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
-    <t>City and Country</t>
-  </si>
-  <si>
-    <t>Email ID</t>
-  </si>
-  <si>
     <t>Contact Name</t>
   </si>
   <si>
     <t>Company Email</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Company Mobile</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Speed Line Logistics &amp; Chartering Pvt Ltd</t>
+  </si>
+  <si>
+    <t>224, 2nd floor, Mohid Heights, Suresh Nagar, Off Lokhandwala Road, Andheri (West), Mumbai, 400053, India</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Anuj Bansal</t>
+  </si>
+  <si>
+    <t>Managing Director</t>
+  </si>
+  <si>
+    <t>md@speedline.in</t>
+  </si>
+  <si>
+    <t>+919819219443</t>
+  </si>
+  <si>
+    <t>Speedline Uluslararasi Nakliyat ve Ticaret Limited Sirketi</t>
+  </si>
+  <si>
+    <t>Speedline Uluslararasi Nakliyat ve Tic.Ltd.Sti.Suadiye Mahallesi, Berna Sokak NO:4 Daire:13, 34740 Kadikoy/ISTANBUL/TURKIYE</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Turkiye</t>
+  </si>
+  <si>
+    <t>Okan SAFA</t>
+  </si>
+  <si>
+    <t>okan@speedlinetr.com</t>
+  </si>
+  <si>
+    <t>902162506553</t>
+  </si>
+  <si>
+    <t>SPN Logistics sp. z o.o.</t>
+  </si>
+  <si>
+    <t>Kineskopowa st.1, 05-500 Piaseczno, Masovian Voivodeship, Poland</t>
+  </si>
+  <si>
+    <t>Piaseczno</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Marcin Multan</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>mm@spnlogistics.pl</t>
+  </si>
+  <si>
+    <t>MA@SPNLOGISTICS.PL</t>
+  </si>
+  <si>
+    <t>Spoti Freight co ltd</t>
+  </si>
+  <si>
+    <t>404, 4th floor, S&amp;B Tower, 68-68/6 Pan Road, Silom, Bangrak, Bangkok 10500 Thailand</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Rincy Samuel</t>
+  </si>
+  <si>
+    <t>Assistant Manager</t>
+  </si>
+  <si>
+    <t>overseas@spotifreight.com</t>
+  </si>
+  <si>
+    <t>KAMAL@SPOTIFREIGHT.COM</t>
+  </si>
+  <si>
+    <t>Al-Mobdeoon</t>
+  </si>
+  <si>
+    <t>Al-Mansur</t>
+  </si>
+  <si>
+    <t>Baghdad</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Mazin B Ahmad</t>
+  </si>
+  <si>
+    <t>invset@yahoo.com</t>
+  </si>
+  <si>
+    <t>Apex International Inc</t>
+  </si>
+  <si>
+    <t>7Fl, Toyokuni Bldg, 2-4-6 Shiba-Daimon, Minato-Ku, Hamamatsucho, Tokyo,Japan.</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Steve Ko</t>
+  </si>
+  <si>
+    <t>steve@apexintl.co.jp</t>
+  </si>
+  <si>
+    <t>steveko6688</t>
+  </si>
+  <si>
+    <t>EUROSTAR INTERNATIONAL LOGISTICS LTD</t>
+  </si>
+  <si>
+    <t>Room 1618,Overseas Friendship Building,No.12,Yingchun Road,Luohu,518001,Shenzhen,China. 深圳市罗湖区迎春路12号海外联谊大厦1618室</t>
+  </si>
+  <si>
+    <t>Shenzhen</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Gavin</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>gavin@eurostarlogistics.cn</t>
+  </si>
+  <si>
+    <t>13714697787</t>
+  </si>
+  <si>
+    <t>FAKHRO SHIPPING AGENCY W.L.L</t>
+  </si>
+  <si>
+    <t>Bahrain Investment Wharf (BIW), Road 1527, Bldg. 1995</t>
+  </si>
+  <si>
+    <t>Manama</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Yasmeen Banu</t>
+  </si>
+  <si>
+    <t>Overseas Development Executive</t>
+  </si>
+  <si>
+    <t>Carolina.Mabanta@fakhroshipping.com</t>
+  </si>
+  <si>
+    <t>YASMEEN.BANU@FAKHROSHIPPING.COM</t>
+  </si>
+  <si>
+    <t>Fantaste Deutschland GmbH</t>
+  </si>
+  <si>
+    <t>Hessenring 15A, 64546 Morfelden-Walldorf</t>
+  </si>
+  <si>
+    <t>Frankfurt</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Michael Wei</t>
+  </si>
+  <si>
+    <t>General Manager</t>
+  </si>
+  <si>
+    <t>michael.wei@fantaste-log.de</t>
+  </si>
+  <si>
+    <t>FAST FREIGHT SPAIN S.L.</t>
+  </si>
+  <si>
+    <t>MUELLE SERRANO LLOBERAS S/N</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>RAZVAN GABRIEL ICHIM</t>
+  </si>
+  <si>
+    <t>razvan@fastfreight.es</t>
+  </si>
+  <si>
+    <t>COMERCIAL@FASTFREIGHT.ES</t>
+  </si>
+  <si>
+    <t>FAST FREIGHT SRL</t>
+  </si>
+  <si>
+    <t>ION LAHOVARI NR 2</t>
+  </si>
+  <si>
+    <t>Constanta</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>SERBAN</t>
+  </si>
+  <si>
+    <t>export sales</t>
+  </si>
+  <si>
+    <t>ffsales@fastfreight.ro</t>
+  </si>
+  <si>
+    <t>241516100</t>
+  </si>
+  <si>
+    <t>FERCAM SPA</t>
+  </si>
+  <si>
+    <t>Direzione Generale - Sede distaccata di Prato Via di Gonfienti I-59100 Prato (PO) Italy</t>
+  </si>
+  <si>
+    <t>PRATO</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Francesco Poli</t>
+  </si>
+  <si>
+    <t>Office Manager &amp; Trade Lane Manager</t>
+  </si>
+  <si>
+    <t>Francesco.Poli@fercam.com</t>
+  </si>
+  <si>
+    <t>393665896761</t>
+  </si>
+  <si>
+    <t>FIDAS'S AMERICA SAS</t>
+  </si>
+  <si>
+    <t>CALLE 24C NO. 80C - 42 OFC 304</t>
+  </si>
+  <si>
+    <t>Bogota</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Jenny Varila Garzon</t>
+  </si>
+  <si>
+    <t>GENERAL MANAGER</t>
+  </si>
+  <si>
+    <t>jvarila@fidassamerica.com</t>
+  </si>
+  <si>
+    <t>3209484379</t>
+  </si>
+  <si>
+    <t>Fila Int'l Forwarding (Shanghai) Co.,Ltd.</t>
+  </si>
+  <si>
+    <t>Add. Room 801, Huirong Building , No.535 Cao Yang Road, Putuo District, Shanghai, PRC</t>
+  </si>
+  <si>
+    <t>Shanghai</t>
+  </si>
+  <si>
+    <t>Maggie</t>
+  </si>
+  <si>
+    <t>General manager</t>
+  </si>
+  <si>
+    <t>fila@filaforwarding.com</t>
+  </si>
+  <si>
+    <t>13901613877</t>
+  </si>
+  <si>
+    <t>Flogis International Corp</t>
+  </si>
+  <si>
+    <t>RM. 3704, Youngdongdae-ro, Gangnam-gu, Seoul, Korea ZIP CODE: 06164</t>
+  </si>
+  <si>
+    <t>Seoul</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Helen Park</t>
+  </si>
+  <si>
+    <t>Deputy General Manager</t>
+  </si>
+  <si>
+    <t>helen@flogisintl.com</t>
+  </si>
+  <si>
+    <t>5515873</t>
+  </si>
+  <si>
+    <t>Foshan Huacai Yili International Freight Co.,Ltd</t>
+  </si>
+  <si>
+    <t>Room 1824, block 1, LongGuangShangJie building, No.16, Wenhai West Road, Shunde</t>
+  </si>
+  <si>
+    <t>Foshan</t>
+  </si>
+  <si>
+    <t>Tina huang</t>
+  </si>
+  <si>
+    <t>huangqiuting@huacaiyili.com</t>
+  </si>
+  <si>
+    <t>15992432012</t>
+  </si>
+  <si>
+    <t>FOX CARGO DO BRASIL LTDA</t>
+  </si>
+  <si>
+    <t>Rua Cuiaba, 229 - Alto da Mooca 03183-000 - S?o Paulo - SP / Brazil</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>FOX Brasil</t>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+  </si>
+  <si>
+    <t>overseas@foxbrasil.com</t>
+  </si>
+  <si>
+    <t>Freight Solutions SAL</t>
+  </si>
+  <si>
+    <t>6th floor, Jbara Building, Dora Rondpoint</t>
+  </si>
+  <si>
+    <t>Beirut</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Elias Mefleh</t>
+  </si>
+  <si>
+    <t>eliasmefleh@freightsolutionsal.com</t>
+  </si>
+  <si>
+    <t>Frontline Line Logistics KSA</t>
+  </si>
+  <si>
+    <t>bagdadiya Plaza, Madeena road, Jeddah</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>rabeeh ahamed pulikkal</t>
+  </si>
+  <si>
+    <t>rabeeh@fllogistics.com</t>
+  </si>
+  <si>
+    <t>INQ.JCTRANS@FLLOGISTICS.COM</t>
+  </si>
+  <si>
+    <t>FRONTLINE LOGISTICS</t>
+  </si>
+  <si>
+    <t>MARKAZ ALMANA TOWER, OFF 406, OLD AIRPORT ROAD</t>
+  </si>
+  <si>
+    <t>Doha</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>AFSAL ALI</t>
+  </si>
+  <si>
+    <t>afsal@fllogistics.com</t>
+  </si>
+  <si>
+    <t>SANJEEV@FLLOGISTICS.COM</t>
+  </si>
+  <si>
+    <t>FALAJ AL QABAIL</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>ASIF ABOOBACKER</t>
+  </si>
+  <si>
+    <t>asif@fllogistics.com</t>
+  </si>
+  <si>
+    <t>MARY@FLLOGISTICS.COM</t>
+  </si>
+  <si>
+    <t>FRONTLINE LOGISTICS CO WLL</t>
+  </si>
+  <si>
+    <t>Salehia Area, Behind MOFA, Baghdad</t>
+  </si>
+  <si>
+    <t>Nassar BP</t>
+  </si>
+  <si>
+    <t>sapna@fllogistics.com</t>
+  </si>
+  <si>
+    <t>ELISHA@FLLOGISTICS.COM</t>
+  </si>
+  <si>
+    <t>Frontline Logistics Co. W.L.L</t>
+  </si>
+  <si>
+    <t>Office 46, Building 225, Road 2805, Block 328</t>
+  </si>
+  <si>
+    <t>Mr. afasl Ali</t>
+  </si>
+  <si>
+    <t>Sales Marketing</t>
+  </si>
+  <si>
+    <t>marketing3@fllogistics.com</t>
+  </si>
+  <si>
+    <t>Frontline Logistics Company LLC</t>
+  </si>
+  <si>
+    <t>Achrafieh</t>
+  </si>
+  <si>
+    <t>Hari Baskar</t>
+  </si>
+  <si>
+    <t>hari@fllogistics.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,44 +894,819 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G41"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="123.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="46.5703125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="123.5703125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="30.28515625"/>
+    <col min="4" max="4" customWidth="true" width="30.28515625"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.140625"/>
+    <col min="6" max="6" customWidth="true" width="27.0"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="39.42578125"/>
+    <col min="8" max="8" customWidth="true" width="22.7109375"/>
+    <col min="13" max="13" customWidth="true" width="18.0"/>
+    <col min="14" max="14" customWidth="true" width="12.0"/>
+    <col min="15" max="15" customWidth="true" width="117.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="H6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H12" s="0"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="D18" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="D19" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="D20" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="H20" s="0"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D21" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="H21" s="0"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="F24" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G24" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="H24" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="H26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="H27" s="0"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
